--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3683061.661071645</v>
+        <v>3758591.33073645</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>177.6452763183135</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>7.1411495271799</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>90.02575748609816</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.8472002154052</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>151.1318884952449</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>53.28872578639825</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>35.9360999538637</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>49.92346332673231</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>330.2536583457307</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.10290646389866</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>17.56607995450715</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>70.069118895749</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>78.74694001459655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>4.841492062620527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>97.24018360678635</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498018</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>88.52416382797658</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.06571898911198</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>21.08556463689406</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>78.46129407658317</v>
+        <v>16.88537639813302</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>118.4898845065126</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>54.9007453852056</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>85.35752369696544</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>85.85123176253201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>82.78559640792214</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.3499507518146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>206.8064269214864</v>
+        <v>58.57351975894742</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.09617589318619</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>209.7629556623157</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>74.61215761783176</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>146.1854691670926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>153.4581765821138</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>207.6816396348341</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2286.503240814085</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2286.503240814085</v>
       </c>
       <c r="V2" t="n">
-        <v>2513.758320981706</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.758320981706</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="X2" t="n">
-        <v>2140.292562720626</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>644.8850693162198</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>644.8850693162198</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="U7" t="n">
-        <v>662.4129741975678</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4129741975678</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>417.5768819848215</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.746656041711</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1156.784139101299</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>798.5184404945485</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>798.5184404945485</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>387.5325357049409</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017522</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041711</v>
+        <v>1799.76938401301</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.2840617486069</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788206999</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788206999</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788206999</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788206999</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788206999</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
         <v>99.5995062532301</v>
@@ -4960,7 +4962,7 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>658.3280685863348</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>658.3280685863348</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541696</v>
+        <v>658.3280685863348</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541696</v>
+        <v>658.3280685863348</v>
       </c>
       <c r="X10" t="n">
-        <v>426.2840617486069</v>
+        <v>658.3280685863348</v>
       </c>
       <c r="Y10" t="n">
-        <v>426.2840617486069</v>
+        <v>437.5354894428046</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1317.064279346244</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1093.27886413575</v>
       </c>
       <c r="W13" t="n">
-        <v>875.5607799144661</v>
+        <v>803.861694098789</v>
       </c>
       <c r="X13" t="n">
-        <v>647.5712290164488</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.7786498729187</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>565.0858502436178</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>565.0858502436178</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>417.1727566612246</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>270.2828091633143</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>102.1074874831349</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>102.1074874831349</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1111.565224087838</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>822.1480540508779</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>822.1480540508779</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.1480540508779</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,10 +5539,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2413.343925613455</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>355.5716216891792</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612723</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612723</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612723</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.6108700904388</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C22" t="n">
-        <v>554.6108700904388</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D22" t="n">
-        <v>554.6108700904388</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E22" t="n">
-        <v>554.6108700904388</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7209225925284</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
         <v>359.1696912903951</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1477.617720419626</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1253.832305209131</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1253.832305209131</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0280401273993</v>
+        <v>1253.832305209131</v>
       </c>
       <c r="W22" t="n">
-        <v>554.6108700904388</v>
+        <v>1253.832305209131</v>
       </c>
       <c r="X22" t="n">
-        <v>554.6108700904388</v>
+        <v>1025.842754311114</v>
       </c>
       <c r="Y22" t="n">
-        <v>554.6108700904388</v>
+        <v>1025.842754311114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6069,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.384017443268</v>
+        <v>4050.7242838109</v>
       </c>
       <c r="C25" t="n">
-        <v>324.384017443268</v>
+        <v>4050.7242838109</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>4460.362299539157</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>4232.37274864114</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735078</v>
+        <v>4232.37274864114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6208,52 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.9038434870662</v>
+        <v>3890.044176674692</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286137</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305963</v>
+        <v>4292.485220648462</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870662</v>
+        <v>4071.692641504932</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3606.045341414586</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C31" t="n">
-        <v>3606.045341414586</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414586</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365625</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4236.865415579183</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>3982.180927373296</v>
+        <v>1301.621446213702</v>
       </c>
       <c r="W31" t="n">
-        <v>3692.763757336335</v>
+        <v>1012.204276176742</v>
       </c>
       <c r="X31" t="n">
-        <v>3606.045341414586</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y31" t="n">
-        <v>3606.045341414586</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6701,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>1088.787142923175</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1396.107276203137</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.96990386717</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085867</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>3774.981524342493</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.210845262961</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570741</v>
+        <v>4064.398694379453</v>
       </c>
       <c r="W34" t="n">
-        <v>531.1091870201135</v>
+        <v>3774.981524342493</v>
       </c>
       <c r="X34" t="n">
-        <v>303.1196361220962</v>
+        <v>3774.981524342493</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>3774.981524342493</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471194</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>1128.755985561596</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1128.755985561596</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>874.0714973557094</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>584.6543273187488</v>
       </c>
       <c r="X37" t="n">
-        <v>318.009670603816</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147083</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211725</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011342</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265285</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O39" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.3109288932103</v>
+        <v>328.8766843813102</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3747459653034</v>
+        <v>159.9405014534032</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529677</v>
+        <v>159.9405014534032</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>159.9405014534032</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>1175.95939372345</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X40" t="n">
-        <v>1175.95939372345</v>
+        <v>731.31772835508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1175.95939372345</v>
+        <v>510.5251492115499</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>159.1396882805839</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>570.0299571250966</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1423.550454782315</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1223.630444697867</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1223.630444697867</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.945405494735</v>
+        <v>934.5018059114255</v>
       </c>
       <c r="V43" t="n">
-        <v>4036.945405494735</v>
+        <v>679.8173177055387</v>
       </c>
       <c r="W43" t="n">
-        <v>3889.283315426964</v>
+        <v>390.400147668578</v>
       </c>
       <c r="X43" t="n">
-        <v>3889.283315426964</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y43" t="n">
-        <v>3889.283315426964</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341677</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>4024.02934650303</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.921157035281</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488389</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V46" t="n">
-        <v>644.108030042952</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="W46" t="n">
-        <v>644.108030042952</v>
+        <v>4205.67781133327</v>
       </c>
       <c r="X46" t="n">
-        <v>434.3285960683721</v>
+        <v>4205.67781133327</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.3285960683721</v>
+        <v>4205.67781133327</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>20.63789864135478</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>158.872441903933</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>62.91120742583729</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>360.502686290725</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208059</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>169.2863157167174</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>253.7371603504734</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>73.64859338270588</v>
       </c>
       <c r="P39" t="n">
-        <v>62.79465928983075</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>20.63789864135398</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,16 +11378,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229573</v>
+        <v>43.65987261462527</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>127.8516910878542</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>207.7760583219945</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5777534016515</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>154.8974597170417</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>56.89688419495467</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>118.4278494742656</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>176.8352453467092</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>70.15417894162918</v>
+        <v>131.7300966200793</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48.75693659211528</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>170.8089100038316</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>166.7801196268626</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>139.8584236265052</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>169.3520469159059</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.2347026002802</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>14.74113413690284</v>
+        <v>162.9740412994418</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.32487212974505</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>76.7600426742753</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.35219478596102</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>140.3375291694984</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>13.78864451651401</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>18.02801575420307</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671878.3395195369</v>
+        <v>671878.3395195368</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.307527876</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="M2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="I2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="N2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26421,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.73165600752</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007447</v>
+        <v>7916.731656007511</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007406</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007534</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007479</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007533</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007423</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.73165600742</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007423</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602003</v>
+        <v>-81806.41311601999</v>
       </c>
       <c r="C6" t="n">
+        <v>508161.4660985245</v>
+      </c>
+      <c r="D6" t="n">
         <v>508161.4660985247</v>
       </c>
-      <c r="D6" t="n">
-        <v>508161.4660985245</v>
-      </c>
       <c r="E6" t="n">
-        <v>78788.21344625566</v>
+        <v>78788.21344625569</v>
       </c>
       <c r="F6" t="n">
         <v>603948.2499231518</v>
       </c>
       <c r="G6" t="n">
-        <v>603948.2499231518</v>
+        <v>603948.2499231517</v>
       </c>
       <c r="H6" t="n">
+        <v>603948.2499231517</v>
+      </c>
+      <c r="I6" t="n">
         <v>603948.2499231519</v>
       </c>
-      <c r="I6" t="n">
-        <v>603948.249923152</v>
-      </c>
       <c r="J6" t="n">
-        <v>427525.030730559</v>
+        <v>427525.0307305583</v>
       </c>
       <c r="K6" t="n">
         <v>603948.2499231519</v>
       </c>
       <c r="L6" t="n">
-        <v>603948.2499231516</v>
+        <v>603948.2499231517</v>
       </c>
       <c r="M6" t="n">
         <v>469147.2346893146</v>
       </c>
       <c r="N6" t="n">
-        <v>603948.2499231516</v>
+        <v>603948.2499231517</v>
       </c>
       <c r="O6" t="n">
-        <v>603948.2499231515</v>
+        <v>603948.2499231517</v>
       </c>
       <c r="P6" t="n">
-        <v>603948.2499231517</v>
+        <v>603948.2499231523</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,19 +26743,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>38.80304403934429</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>320.611108942955</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27552,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.1118858377299</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>264.1714611465362</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.8866414480754</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.1060501608087</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>93.37646619375957</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>250.345774288114</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>332.8103783367483</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>83.5305116750643</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>155.9321989941856</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>208.14357543453</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,10 +28563,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31519,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35501,10 +35503,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>227.7313135728794</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.353110871397</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349813</v>
@@ -36437,10 +36439,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>345.2749096669455</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686866</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>609.7603912467494</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
@@ -36923,16 +36925,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>560.0354988619141</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37080,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>418.5440206727418</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>536.1008625915816</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37233,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37317,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37554,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>356.0122956238141</v>
       </c>
       <c r="P39" t="n">
-        <v>269.8880742213555</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37707,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37791,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>62.54807759626069</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37868,19 +37870,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734237</v>
+        <v>354.0842496650915</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3758591.33073645</v>
+        <v>3751574.315844738</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>317.6215731555761</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>177.6452763183135</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>128.5906170851793</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>151.1318884952449</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>89.07602811714224</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.28872578639825</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49.92346332673231</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>48.26252137233833</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.10290646389866</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>173.9313784350747</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.069118895749</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>101.142654714013</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.841492062620527</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>88.52416382797658</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="20">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>21.08556463689406</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>16.88537639813302</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>238.8478303003488</v>
       </c>
       <c r="X28" t="n">
-        <v>54.9007453852056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.97175332133618</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>85.35752369696544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>82.78559640792214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>58.57351975894742</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.09617589318619</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>74.61215761783176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>153.4581765821138</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>136.9294450180242</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.835263233623</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1293.161685715201</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>934.895987108451</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>549.1077345102067</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>542.1622337610032</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>528.2388296995941</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2286.503240814085</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2286.503240814085</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1955.440353470514</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.440353470514</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.974595209434</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1191.835263233623</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>76.52029211334911</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>76.52029211334911</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>594.8183988172239</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>183.8324940276163</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545818</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>644.8850693162198</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>644.8850693162198</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>417.5768819848215</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>417.5768819848215</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>417.5768819848215</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>417.5768819848215</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X7" t="n">
-        <v>417.5768819848215</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.5768819848215</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.908715988822</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1799.76938401301</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>437.5354894428046</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>658.3280685863348</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>658.3280685863348</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>658.3280685863348</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>658.3280685863348</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>658.3280685863348</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>437.5354894428046</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5083,7 +5083,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.189502980821</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1317.064279346244</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1093.27886413575</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="U13" t="n">
-        <v>1093.27886413575</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.27886413575</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="W13" t="n">
-        <v>803.861694098789</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="X13" t="n">
-        <v>575.8721432007717</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,16 +5269,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>565.0858502436178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>565.0858502436178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>417.1727566612246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>270.2828091633143</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1074874831349</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>102.1074874831349</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,7 +5506,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.5716216891792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609664</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>758.0126656629491</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y19" t="n">
-        <v>537.2200865194189</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1477.617720419626</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1253.832305209131</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.832305209131</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.832305209131</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1253.832305209131</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1025.842754311114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1025.842754311114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4050.7242838109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4050.7242838109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4033.66834805521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4749.779469576118</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4460.362299539157</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4232.37274864114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4232.37274864114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,10 +6250,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3890.044176674692</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C28" t="n">
-        <v>3721.107993746785</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>3721.107993746785</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746785</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746785</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017357</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>4347.940519017357</v>
+        <v>1257.655835911085</v>
       </c>
       <c r="X28" t="n">
-        <v>4292.485220648462</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="Y28" t="n">
-        <v>4071.692641504932</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6463,28 +6463,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014291</v>
@@ -6493,22 +6493,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.4221461351941</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
         <v>265.3924131404652</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1301.621446213702</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1012.204276176742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X31" t="n">
-        <v>784.2147252787242</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.4221461351941</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3774.981524342493</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.02050893291</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4064.398694379453</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>3774.981524342493</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>3774.981524342493</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3774.981524342493</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6976,10 +6976,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1128.755985561596</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1128.755985561596</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>874.0714973557094</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>584.6543273187488</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155918</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515592</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>328.8766843813102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>159.9405014534032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>159.9405014534032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>159.9405014534032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>731.31772835508</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>731.31772835508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>510.5251492115499</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>159.1396882805839</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>570.0299571250966</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1423.550454782315</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1223.630444697867</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1223.630444697867</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>934.5018059114255</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>679.8173177055387</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>390.400147668578</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>390.400147668578</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4024.02934650303</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C46" t="n">
-        <v>3869.021087329178</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D46" t="n">
-        <v>3869.021087329178</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E46" t="n">
-        <v>3721.107993746785</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746785</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4495.094981370231</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>4205.67781133327</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X46" t="n">
-        <v>4205.67781133327</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y46" t="n">
-        <v>4205.67781133327</v>
+        <v>877.9296607287212</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1031356539336</v>
+        <v>29.47535963978319</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>20.63789864135478</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.872441903933</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>62.91120742583729</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>360.502686290725</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>297.3877236703351</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>253.7371603504734</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231148</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>73.64859338270588</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>20.63789864135398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>43.65987261462527</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>127.8516910878542</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4049063443762</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5777534016515</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>56.89688419495467</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>176.8352453467092</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>131.7300966200793</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.67516803624221</v>
       </c>
       <c r="X28" t="n">
-        <v>170.8089100038316</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>162.8602268606011</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>166.7801196268626</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>169.3520469159059</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>162.9740412994418</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.32487212974505</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.35219478596102</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>13.78864451651401</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>81.65520833407064</v>
       </c>
     </row>
   </sheetData>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="H2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="G2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="L2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.307527876</v>
       </c>
       <c r="M2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="N2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.307527876</v>
       </c>
       <c r="O2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278758</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26423,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600752</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007511</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007534</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007441</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007486</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311601999</v>
+        <v>-81806.41311602</v>
       </c>
       <c r="C6" t="n">
-        <v>508161.4660985245</v>
+        <v>508161.4660985243</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985247</v>
+        <v>508161.4660985243</v>
       </c>
       <c r="E6" t="n">
-        <v>78788.21344625569</v>
+        <v>77813.62218653399</v>
       </c>
       <c r="F6" t="n">
-        <v>603948.2499231518</v>
+        <v>602973.6586634299</v>
       </c>
       <c r="G6" t="n">
-        <v>603948.2499231517</v>
+        <v>602973.6586634304</v>
       </c>
       <c r="H6" t="n">
-        <v>603948.2499231517</v>
+        <v>602973.6586634303</v>
       </c>
       <c r="I6" t="n">
-        <v>603948.2499231519</v>
+        <v>602973.6586634301</v>
       </c>
       <c r="J6" t="n">
-        <v>427525.0307305583</v>
+        <v>426550.4394708371</v>
       </c>
       <c r="K6" t="n">
-        <v>603948.2499231519</v>
+        <v>602973.6586634304</v>
       </c>
       <c r="L6" t="n">
-        <v>603948.2499231517</v>
+        <v>602973.6586634303</v>
       </c>
       <c r="M6" t="n">
-        <v>469147.2346893146</v>
+        <v>468172.643429593</v>
       </c>
       <c r="N6" t="n">
-        <v>603948.2499231517</v>
+        <v>602973.6586634303</v>
       </c>
       <c r="O6" t="n">
-        <v>603948.2499231517</v>
+        <v>602973.65866343</v>
       </c>
       <c r="P6" t="n">
-        <v>603948.2499231523</v>
+        <v>602973.65866343</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.301199608781019</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>38.80304403934429</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>168.53933734988</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>264.1714611465362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>285.1935529356157</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.1060501608087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>57.35793452942693</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>93.37646619375957</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>332.8103783367483</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>202.961646135951</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>155.9321989941856</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.6532749170201</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,10 +28563,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>492.1965505854582</v>
+        <v>236.5687745713078</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35743,10 +35743,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>227.7313135728794</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,7 +36208,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>345.2749096669455</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>609.7603912467494</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>579.7514259114432</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>536.1008625915816</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110541</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>356.0122956238141</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.54807759626069</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>354.0842496650915</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3751574.315844738</v>
+        <v>3756513.578693771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>33.53239382874479</v>
       </c>
       <c r="H2" t="n">
-        <v>317.6215731555761</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.49576810820431</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.469284443488</v>
       </c>
       <c r="G5" t="n">
-        <v>128.5906170851793</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>89.07602811714224</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>42.86315430496755</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>48.26252137233833</v>
+        <v>173.3244323150252</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.03250833503009</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.9313784350747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>101.142654714013</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>77.09075258260994</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,13 +1660,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>145.3941630732812</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>238.8478303003488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.97175332133618</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>54.40320730981892</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.9294450180242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.124202655613</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.161685715201</v>
+        <v>1723.514638661394</v>
       </c>
       <c r="D2" t="n">
-        <v>934.895987108451</v>
+        <v>1365.248940054644</v>
       </c>
       <c r="E2" t="n">
-        <v>549.1077345102067</v>
+        <v>979.4606874563995</v>
       </c>
       <c r="F2" t="n">
-        <v>542.1622337610032</v>
+        <v>568.474782666792</v>
       </c>
       <c r="G2" t="n">
-        <v>528.2388296995941</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.124202655613</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,28 +4494,28 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
         <v>308.6274700262513</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D5" t="n">
-        <v>980.6066514154681</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="E5" t="n">
-        <v>594.8183988172239</v>
+        <v>246.1181883499433</v>
       </c>
       <c r="F5" t="n">
-        <v>183.8324940276163</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="C7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="D7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>142.8956217127933</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951862</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>411.2797076961344</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982241</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5083,7 +5083,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790661</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.23751609332</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1396.75197286698</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.75197286698</v>
+        <v>1421.046823504761</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>1193.057272606744</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1352.05347957479</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1352.05347957479</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1352.05347957479</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>1097.368991368903</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>807.9518213319425</v>
       </c>
       <c r="X19" t="n">
-        <v>303.1196361220957</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="20">
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,7 +6013,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.655835911085</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6533,28 +6533,28 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O30" t="n">
         <v>2112.811595180915</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3177283550796</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,25 +6961,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352015</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>1016.242231453998</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>877.9296607287212</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978319</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>297.3877236703351</v>
+        <v>297.3877236703341</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4049063443762</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>209.4322457539811</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>52.52664691032209</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>47.67516803624221</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.8602268606011</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>143.5176026737843</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.65520833407064</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671878.3395195369</v>
+        <v>671878.3395195368</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="H2" t="n">
         <v>703852.307527876</v>
@@ -26337,25 +26337,25 @@
         <v>703852.3075278759</v>
       </c>
       <c r="J2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>703852.3075278761</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="N2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="M2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278758</v>
-      </c>
       <c r="P2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007436</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007441</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602</v>
+        <v>-81806.41311601989</v>
       </c>
       <c r="C6" t="n">
-        <v>508161.4660985243</v>
+        <v>508161.4660985245</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985243</v>
+        <v>508161.4660985247</v>
       </c>
       <c r="E6" t="n">
-        <v>77813.62218653399</v>
+        <v>78690.75432028367</v>
       </c>
       <c r="F6" t="n">
-        <v>602973.6586634299</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="G6" t="n">
-        <v>602973.6586634304</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="H6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="I6" t="n">
-        <v>602973.6586634301</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="J6" t="n">
-        <v>426550.4394708371</v>
+        <v>427427.5716045866</v>
       </c>
       <c r="K6" t="n">
-        <v>602973.6586634304</v>
+        <v>603850.7907971796</v>
       </c>
       <c r="L6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.79079718</v>
       </c>
       <c r="M6" t="n">
-        <v>468172.643429593</v>
+        <v>469049.7755633424</v>
       </c>
       <c r="N6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="O6" t="n">
-        <v>602973.65866343</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="P6" t="n">
-        <v>602973.65866343</v>
+        <v>603850.7907971797</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26764,7 +26764,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>380.2517761920502</v>
       </c>
       <c r="H2" t="n">
-        <v>6.301199608781019</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>168.53933734988</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.4067612982234</v>
       </c>
       <c r="G5" t="n">
-        <v>285.1935529356157</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>57.35793452942693</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>102.5578937179637</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>202.961646135951</v>
+        <v>77.89973519326406</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>4.167450853506899</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.6532749170201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713078</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>579.7514259114432</v>
+        <v>579.7514259114423</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
